--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H2">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I2">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J2">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.460132666666667</v>
+        <v>1.349272</v>
       </c>
       <c r="N2">
-        <v>10.380398</v>
+        <v>4.047815999999999</v>
       </c>
       <c r="O2">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338741</v>
       </c>
       <c r="P2">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338742</v>
       </c>
       <c r="Q2">
-        <v>60.851117962964</v>
+        <v>20.880279690568</v>
       </c>
       <c r="R2">
-        <v>547.660061666676</v>
+        <v>187.922517215112</v>
       </c>
       <c r="S2">
-        <v>0.003522000442253184</v>
+        <v>0.001253341837510854</v>
       </c>
       <c r="T2">
-        <v>0.003522000442253185</v>
+        <v>0.001253341837510855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H3">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I3">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J3">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>549.27501</v>
       </c>
       <c r="O3">
-        <v>0.8555757185143522</v>
+        <v>0.864099120973151</v>
       </c>
       <c r="P3">
-        <v>0.8555757185143523</v>
+        <v>0.8640991209731511</v>
       </c>
       <c r="Q3">
-        <v>3219.91492307118</v>
+        <v>2833.38369032573</v>
       </c>
       <c r="R3">
-        <v>28979.23430764062</v>
+        <v>25500.45321293157</v>
       </c>
       <c r="S3">
-        <v>0.1863653809939293</v>
+        <v>0.1700742697623096</v>
       </c>
       <c r="T3">
-        <v>0.1863653809939294</v>
+        <v>0.1700742697623096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H4">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I4">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J4">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>82.339214</v>
       </c>
       <c r="O4">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="P4">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="Q4">
-        <v>482.682188495252</v>
+        <v>424.7391229792887</v>
       </c>
       <c r="R4">
-        <v>4344.139696457268</v>
+        <v>3822.652106813598</v>
       </c>
       <c r="S4">
-        <v>0.02793715116923065</v>
+        <v>0.02549502788020984</v>
       </c>
       <c r="T4">
-        <v>0.02793715116923067</v>
+        <v>0.02549502788020985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>156.811283</v>
       </c>
       <c r="I5">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J5">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.460132666666667</v>
+        <v>1.349272</v>
       </c>
       <c r="N5">
-        <v>10.380398</v>
+        <v>4.047815999999999</v>
       </c>
       <c r="O5">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338741</v>
       </c>
       <c r="P5">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338742</v>
       </c>
       <c r="Q5">
-        <v>180.8626142700705</v>
+        <v>70.52702447865866</v>
       </c>
       <c r="R5">
-        <v>1627.763528430634</v>
+        <v>634.7432203079279</v>
       </c>
       <c r="S5">
-        <v>0.0104681430476586</v>
+        <v>0.004233394943180977</v>
       </c>
       <c r="T5">
-        <v>0.01046814304765861</v>
+        <v>0.004233394943180979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>156.811283</v>
       </c>
       <c r="I6">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J6">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>549.27501</v>
       </c>
       <c r="O6">
-        <v>0.8555757185143522</v>
+        <v>0.864099120973151</v>
       </c>
       <c r="P6">
-        <v>0.8555757185143523</v>
+        <v>0.8640991209731511</v>
       </c>
       <c r="Q6">
         <v>9570.279893104203</v>
@@ -818,10 +818,10 @@
         <v>86132.51903793782</v>
       </c>
       <c r="S6">
-        <v>0.553918007496833</v>
+        <v>0.5744574481027995</v>
       </c>
       <c r="T6">
-        <v>0.5539180074968331</v>
+        <v>0.5744574481027996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>156.811283</v>
       </c>
       <c r="I7">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J7">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>82.339214</v>
       </c>
       <c r="O7">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="P7">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="Q7">
         <v>1434.635309839063</v>
@@ -880,10 +880,10 @@
         <v>12911.71778855156</v>
       </c>
       <c r="S7">
-        <v>0.08303522375382659</v>
+        <v>0.08611419396857377</v>
       </c>
       <c r="T7">
-        <v>0.0830352237538266</v>
+        <v>0.08611419396857381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>32.638654</v>
       </c>
       <c r="I8">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J8">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.460132666666667</v>
+        <v>1.349272</v>
       </c>
       <c r="N8">
-        <v>10.380398</v>
+        <v>4.047815999999999</v>
       </c>
       <c r="O8">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338741</v>
       </c>
       <c r="P8">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338742</v>
       </c>
       <c r="Q8">
-        <v>37.64469096714355</v>
+        <v>14.67947398662933</v>
       </c>
       <c r="R8">
-        <v>338.802218704292</v>
+        <v>132.115265879664</v>
       </c>
       <c r="S8">
-        <v>0.00217883619353484</v>
+        <v>0.0008811375696469087</v>
       </c>
       <c r="T8">
-        <v>0.002178836193534841</v>
+        <v>0.0008811375696469088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>32.638654</v>
       </c>
       <c r="I9">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J9">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>549.27501</v>
       </c>
       <c r="O9">
-        <v>0.8555757185143522</v>
+        <v>0.864099120973151</v>
       </c>
       <c r="P9">
-        <v>0.8555757185143523</v>
+        <v>0.8640991209731511</v>
       </c>
       <c r="Q9">
         <v>1991.955222470727</v>
@@ -1004,10 +1004,10 @@
         <v>17927.59700223654</v>
       </c>
       <c r="S9">
-        <v>0.1152923300235898</v>
+        <v>0.1195674031080419</v>
       </c>
       <c r="T9">
-        <v>0.1152923300235898</v>
+        <v>0.1195674031080419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>32.638654</v>
       </c>
       <c r="I10">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J10">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>82.339214</v>
       </c>
       <c r="O10">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="P10">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="Q10">
         <v>298.6045684864396</v>
@@ -1066,10 +1066,10 @@
         <v>2687.441116377956</v>
       </c>
       <c r="S10">
-        <v>0.01728292687914381</v>
+        <v>0.01792378282772654</v>
       </c>
       <c r="T10">
-        <v>0.01728292687914382</v>
+        <v>0.01792378282772654</v>
       </c>
     </row>
   </sheetData>
